--- a/server/excels/tender.xlsx
+++ b/server/excels/tender.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ردیف</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>تاریخ نامه ارسال اسناد به کارفرما</t>
+  </si>
+  <si>
+    <t>اندیکاتور</t>
   </si>
 </sst>
 </file>
@@ -463,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,6 +569,9 @@
         <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/server/excels/tender.xlsx
+++ b/server/excels/tender.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:AG1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,25 +554,25 @@
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
